--- a/excel/grade_4_volume_2_word.xlsx
+++ b/excel/grade_4_volume_2_word.xlsx
@@ -1,33 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="说明" sheetId="1" r:id="rId1"/>
-    <sheet name="Module" sheetId="2" r:id="rId2"/>
-    <sheet name="Unit 1" sheetId="3" r:id="rId3"/>
-    <sheet name="Unit 2" sheetId="4" r:id="rId4"/>
-    <sheet name="Unit 3" sheetId="5" r:id="rId5"/>
-    <sheet name="Unit 4" sheetId="6" r:id="rId6"/>
-    <sheet name="Unit 5" sheetId="7" r:id="rId7"/>
-    <sheet name="Unit 6" sheetId="8" r:id="rId8"/>
-    <sheet name="Unit 7" sheetId="9" r:id="rId9"/>
-    <sheet name="Unit 8" sheetId="10" r:id="rId10"/>
-    <sheet name="Unit 9" sheetId="11" r:id="rId11"/>
-    <sheet name="Unit 10" sheetId="12" r:id="rId12"/>
-    <sheet name="Unit 11" sheetId="13" r:id="rId13"/>
-    <sheet name="Unit 12" sheetId="14" r:id="rId14"/>
+    <sheet name="说明" sheetId="1" r:id="rId4"/>
+    <sheet name="Module" sheetId="2" r:id="rId5"/>
+    <sheet name="Unit 1" sheetId="3" r:id="rId6"/>
+    <sheet name="Unit 2" sheetId="4" r:id="rId7"/>
+    <sheet name="Unit 3" sheetId="5" r:id="rId8"/>
+    <sheet name="Unit 4" sheetId="6" r:id="rId9"/>
+    <sheet name="Unit 5" sheetId="7" r:id="rId10"/>
+    <sheet name="Unit 6 " sheetId="8" r:id="rId11"/>
+    <sheet name="Unit 7" sheetId="9" r:id="rId12"/>
+    <sheet name="Unit 8" sheetId="10" r:id="rId13"/>
+    <sheet name="Unit 9" sheetId="11" r:id="rId14"/>
+    <sheet name="Unit 10" sheetId="12" r:id="rId15"/>
+    <sheet name="Unit 11" sheetId="13" r:id="rId16"/>
+    <sheet name="Unit 12" sheetId="14" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="350">
   <si>
     <t>说明</t>
   </si>
@@ -158,12 +155,21 @@
     <t>他（he的宾格）</t>
   </si>
   <si>
+    <t>policewoman</t>
+  </si>
+  <si>
     <t>女警察</t>
   </si>
   <si>
+    <t>policewomen</t>
+  </si>
+  <si>
     <t>女警察(复数）</t>
   </si>
   <si>
+    <t>uniform</t>
+  </si>
+  <si>
     <t>制服</t>
   </si>
   <si>
@@ -188,6 +194,9 @@
     <t>和蔼的；慈祥的</t>
   </si>
   <si>
+    <t>What  is...like?.</t>
+  </si>
+  <si>
     <t xml:space="preserve">.....像什么? </t>
   </si>
   <si>
@@ -236,6 +245,9 @@
     <t> </t>
   </si>
   <si>
+    <t>It's  time  to/for...</t>
+  </si>
+  <si>
     <t xml:space="preserve">是......的时候了  </t>
   </si>
   <si>
@@ -254,7 +266,7 @@
     <t>起床 </t>
   </si>
   <si>
-    <t>o’clock</t>
+    <t>o'clock</t>
   </si>
   <si>
     <t>...点钟   </t>
@@ -1016,7 +1028,7 @@
     <t>五月</t>
   </si>
   <si>
-    <t>Mother’s Day</t>
+    <t>Mother's Day</t>
   </si>
   <si>
     <t>母亲节</t>
@@ -1028,7 +1040,7 @@
     <t>九月   </t>
   </si>
   <si>
-    <t>Teachers’  Day </t>
+    <t>Teachers'  Day </t>
   </si>
   <si>
     <t>教师节 </t>
@@ -1062,90 +1074,16 @@
   </si>
   <si>
     <t>春节</t>
-  </si>
-  <si>
-    <r>
-      <t>polic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>woman</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>polic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>women</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>unifo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>What  is...like?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>It’s  time  to/for...</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1155,19 +1093,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1335,219 +1260,162 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFD5D5D5"/>
-      <rgbColor rgb="FFADADAD"/>
-      <rgbColor rgb="FFE3E3E3"/>
-      <rgbColor rgb="FFF4F9F8"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffd5d5d5"/>
+      <rgbColor rgb="ffadadad"/>
+      <rgbColor rgb="ffe3e3e3"/>
+      <rgbColor rgb="fff4f9f8"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1746,7 +1614,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1765,7 +1633,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1795,7 +1663,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1821,7 +1689,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1847,7 +1715,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1873,7 +1741,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1899,7 +1767,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1925,7 +1793,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1951,7 +1819,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1977,7 +1845,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2003,7 +1871,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2016,15 +1884,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2041,7 +1903,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2060,7 +1922,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2086,7 +1948,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2112,7 +1974,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2138,7 +2000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2164,7 +2026,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2190,7 +2052,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2216,7 +2078,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2242,7 +2104,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2268,7 +2130,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2294,7 +2156,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2307,15 +2169,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2329,7 +2185,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2348,7 +2204,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2378,7 +2234,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2404,7 +2260,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2430,7 +2286,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2456,7 +2312,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2482,7 +2338,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2508,7 +2364,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2534,7 +2390,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2560,7 +2416,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2586,7 +2442,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2599,144 +2455,134 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="16.28515625" style="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.2109" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.9141" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30.95" customHeight="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" ht="31" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="1:4" ht="22.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="22.35" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" ht="22.25" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="22.35" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" ht="22.25" customHeight="1">
+      <c r="A4" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="22.35" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" ht="19.95" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" ht="19.95" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" ht="19.95" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" ht="19.95" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" ht="22.25" customHeight="1">
+      <c r="A9" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" ht="22.5" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" ht="19.95" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" t="s" s="17">
         <v>11</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" t="s" s="17">
         <v>10</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2744,88 +2590,85 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="16.28515625" style="35" customWidth="1"/>
-    <col min="5" max="16384" width="16.28515625" style="35"/>
+    <col min="1" max="3" width="16.3516" style="36" customWidth="1"/>
+    <col min="4" max="16384" width="16.3516" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="20.2" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" ht="22.25" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>216</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="B3" t="s" s="7">
         <v>217</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" ht="22.25" customHeight="1">
+      <c r="A4" t="s" s="9">
         <v>218</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
+      <c r="B4" t="s" s="10">
+        <v>219</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" ht="22.25" customHeight="1">
+      <c r="A5" t="s" s="6">
+        <v>220</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>221</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" ht="22.25" customHeight="1">
+      <c r="A6" t="s" s="9">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s" s="10">
+        <v>223</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" ht="19.95" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" ht="20.2" customHeight="1">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2833,180 +2676,179 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:C18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="16.28515625" style="36" customWidth="1"/>
-    <col min="5" max="16384" width="16.28515625" style="36"/>
+    <col min="1" max="3" width="16.3516" style="37" customWidth="1"/>
+    <col min="4" max="16384" width="16.3516" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="20.2" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" ht="22.25" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>225</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="B3" t="s" s="7">
         <v>226</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" ht="22.25" customHeight="1">
+      <c r="A4" t="s" s="9">
         <v>227</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="B4" t="s" s="10">
         <v>228</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" ht="22.25" customHeight="1">
+      <c r="A5" t="s" s="6">
         <v>229</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="B5" t="s" s="7">
         <v>230</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" ht="22.25" customHeight="1">
+      <c r="A6" t="s" s="9">
         <v>231</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="B6" t="s" s="10">
         <v>232</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" ht="22.25" customHeight="1">
+      <c r="A7" t="s" s="6">
         <v>233</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="B7" t="s" s="7">
         <v>234</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" ht="22.25" customHeight="1">
+      <c r="A8" t="s" s="9">
         <v>235</v>
       </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="B8" t="s" s="10">
         <v>236</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" ht="22.25" customHeight="1">
+      <c r="A9" t="s" s="6">
         <v>237</v>
       </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="B9" t="s" s="7">
         <v>238</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C9" t="s" s="27">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" ht="22.25" customHeight="1">
+      <c r="A10" t="s" s="9">
         <v>239</v>
       </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="B10" t="s" s="10">
         <v>240</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" ht="22.25" customHeight="1">
+      <c r="A11" t="s" s="6">
         <v>241</v>
       </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="B11" t="s" s="7">
         <v>242</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" ht="22.25" customHeight="1">
+      <c r="A12" t="s" s="9">
         <v>243</v>
       </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="B12" t="s" s="10">
         <v>244</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" ht="22.25" customHeight="1">
+      <c r="A13" t="s" s="6">
         <v>245</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="B13" t="s" s="7">
         <v>246</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" ht="22.25" customHeight="1">
+      <c r="A14" t="s" s="9">
         <v>247</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B14" t="s" s="10">
         <v>248</v>
       </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" ht="22.25" customHeight="1">
+      <c r="A15" t="s" s="6">
+        <v>249</v>
+      </c>
+      <c r="B15" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="C15" t="s" s="27">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" ht="22.25" customHeight="1">
+      <c r="A16" t="s" s="9">
+        <v>252</v>
+      </c>
+      <c r="B16" t="s" s="10">
+        <v>253</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" ht="19.95" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" ht="20.2" customHeight="1">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3014,133 +2856,132 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="37" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="37" customWidth="1"/>
-    <col min="5" max="16384" width="16.28515625" style="37"/>
+    <col min="1" max="1" width="21.4531" style="38" customWidth="1"/>
+    <col min="2" max="2" width="30.6641" style="38" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="38" customWidth="1"/>
+    <col min="4" max="16384" width="16.3516" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="20.2" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" ht="22.25" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>255</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="B3" t="s" s="7">
         <v>256</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" ht="22.25" customHeight="1">
+      <c r="A4" t="s" s="9">
         <v>257</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="B4" t="s" s="10">
         <v>258</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" ht="22.25" customHeight="1">
+      <c r="A5" t="s" s="6">
         <v>259</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="B5" t="s" s="7">
         <v>260</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" ht="22.25" customHeight="1">
+      <c r="A6" t="s" s="9">
         <v>261</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="B6" t="s" s="10">
         <v>262</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" ht="22.25" customHeight="1">
+      <c r="A7" t="s" s="6">
         <v>263</v>
       </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="B7" t="s" s="7">
         <v>264</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" ht="22.25" customHeight="1">
+      <c r="A8" t="s" s="9">
         <v>265</v>
       </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="B8" t="s" s="10">
         <v>266</v>
       </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="17"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" ht="22.25" customHeight="1">
+      <c r="A9" t="s" s="6">
+        <v>267</v>
+      </c>
+      <c r="B9" t="s" s="7">
+        <v>268</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" ht="22.25" customHeight="1">
+      <c r="A10" t="s" s="9">
+        <v>269</v>
+      </c>
+      <c r="B10" t="s" s="10">
+        <v>270</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" ht="22.25" customHeight="1">
+      <c r="A11" t="s" s="6">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s" s="7">
+        <v>271</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" ht="19.95" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" ht="20.2" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3148,206 +2989,205 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="38" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="38" customWidth="1"/>
-    <col min="5" max="16384" width="16.28515625" style="38"/>
+    <col min="1" max="1" width="16.6172" style="39" customWidth="1"/>
+    <col min="2" max="2" width="24.5156" style="39" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="39" customWidth="1"/>
+    <col min="4" max="16384" width="16.3516" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="20.2" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" ht="22.25" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>273</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="B3" t="s" s="7">
         <v>274</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C3" t="s" s="27">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" ht="22.25" customHeight="1">
+      <c r="A4" t="s" s="9">
         <v>275</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="B4" t="s" s="10">
         <v>276</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" ht="22.25" customHeight="1">
+      <c r="A5" t="s" s="6">
         <v>277</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="B5" t="s" s="7">
         <v>278</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" ht="22.25" customHeight="1">
+      <c r="A6" t="s" s="9">
         <v>279</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="B6" t="s" s="10">
         <v>280</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" ht="22.25" customHeight="1">
+      <c r="A7" t="s" s="6">
         <v>281</v>
       </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="B7" t="s" s="7">
         <v>282</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C7" t="s" s="27">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" ht="22.25" customHeight="1">
+      <c r="A8" t="s" s="9">
         <v>283</v>
       </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="B8" t="s" s="10">
         <v>284</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" ht="22.25" customHeight="1">
+      <c r="A9" t="s" s="6">
         <v>285</v>
       </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="B9" t="s" s="7">
         <v>286</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" ht="22.25" customHeight="1">
+      <c r="A10" t="s" s="9">
         <v>287</v>
       </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="B10" t="s" s="10">
         <v>288</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" ht="22.25" customHeight="1">
+      <c r="A11" t="s" s="6">
         <v>289</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="B11" t="s" s="7">
         <v>290</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" ht="22.25" customHeight="1">
+      <c r="A12" t="s" s="9">
         <v>291</v>
       </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="B12" t="s" s="10">
         <v>292</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" ht="22.25" customHeight="1">
+      <c r="A13" t="s" s="6">
         <v>293</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="B13" t="s" s="7">
         <v>294</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C13" t="s" s="27">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" ht="22.25" customHeight="1">
+      <c r="A14" t="s" s="9">
         <v>295</v>
       </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="B14" t="s" s="10">
         <v>296</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" ht="22.25" customHeight="1">
+      <c r="A15" t="s" s="6">
         <v>297</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A18" s="8" t="s">
+      <c r="B15" t="s" s="7">
         <v>298</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C15" t="s" s="27">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" ht="22.25" customHeight="1">
+      <c r="A16" t="s" s="9">
         <v>299</v>
       </c>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="B16" t="s" s="10">
+        <v>300</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" ht="22.25" customHeight="1">
+      <c r="A17" t="s" s="6">
+        <v>301</v>
+      </c>
+      <c r="B17" t="s" s="7">
+        <v>302</v>
+      </c>
+      <c r="C17" t="s" s="27">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" ht="22.25" customHeight="1">
+      <c r="A18" t="s" s="9">
+        <v>303</v>
+      </c>
+      <c r="B18" t="s" s="10">
+        <v>304</v>
+      </c>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" ht="19.95" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" ht="20.2" customHeight="1">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3355,250 +3195,249 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:C26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="16" style="39" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="39" customWidth="1"/>
-    <col min="5" max="16384" width="16.28515625" style="39"/>
+    <col min="1" max="1" width="19.1562" style="40" customWidth="1"/>
+    <col min="2" max="2" width="16.0547" style="40" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="40" customWidth="1"/>
+    <col min="4" max="16384" width="16.3516" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="20.2" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" ht="22.25" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>306</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="B3" t="s" s="7">
         <v>307</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" ht="22.25" customHeight="1">
+      <c r="A4" t="s" s="9">
         <v>308</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="B4" t="s" s="10">
         <v>309</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" ht="22.25" customHeight="1">
+      <c r="A5" t="s" s="6">
         <v>310</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="B5" t="s" s="7">
         <v>311</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" ht="22.25" customHeight="1">
+      <c r="A6" t="s" s="9">
         <v>312</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="B6" t="s" s="10">
         <v>313</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" ht="22.25" customHeight="1">
+      <c r="A7" t="s" s="6">
         <v>314</v>
       </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="B7" t="s" s="7">
         <v>315</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" ht="22.25" customHeight="1">
+      <c r="A8" t="s" s="9">
         <v>316</v>
       </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="B8" t="s" s="10">
         <v>317</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" ht="22.25" customHeight="1">
+      <c r="A9" t="s" s="6">
         <v>318</v>
       </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="B9" t="s" s="7">
         <v>319</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" ht="22.25" customHeight="1">
+      <c r="A10" t="s" s="9">
         <v>320</v>
       </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="B10" t="s" s="10">
         <v>321</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" ht="22.25" customHeight="1">
+      <c r="A11" t="s" s="6">
         <v>322</v>
       </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="B11" t="s" s="7">
         <v>323</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" ht="22.25" customHeight="1">
+      <c r="A12" t="s" s="9">
         <v>324</v>
       </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="B12" t="s" s="10">
         <v>325</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" ht="22.25" customHeight="1">
+      <c r="A13" t="s" s="6">
         <v>326</v>
       </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="B13" t="s" s="7">
         <v>327</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" ht="22.25" customHeight="1">
+      <c r="A14" t="s" s="9">
         <v>328</v>
       </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="B14" t="s" s="10">
         <v>329</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" ht="22.25" customHeight="1">
+      <c r="A15" t="s" s="6">
         <v>330</v>
       </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A18" s="8" t="s">
+      <c r="B15" t="s" s="7">
         <v>331</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" ht="22.25" customHeight="1">
+      <c r="A16" t="s" s="9">
         <v>332</v>
       </c>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="B16" t="s" s="10">
         <v>333</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" ht="22.25" customHeight="1">
+      <c r="A17" t="s" s="6">
         <v>334</v>
       </c>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A20" s="8" t="s">
+      <c r="B17" t="s" s="7">
         <v>335</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" ht="22.25" customHeight="1">
+      <c r="A18" t="s" s="9">
         <v>336</v>
       </c>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="B18" t="s" s="10">
         <v>337</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" ht="22.25" customHeight="1">
+      <c r="A19" t="s" s="6">
         <v>338</v>
       </c>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A22" s="8" t="s">
+      <c r="B19" t="s" s="7">
         <v>339</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" ht="22.25" customHeight="1">
+      <c r="A20" t="s" s="9">
         <v>340</v>
       </c>
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A23" s="5" t="s">
+      <c r="B20" t="s" s="10">
         <v>341</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" ht="22.25" customHeight="1">
+      <c r="A21" t="s" s="6">
         <v>342</v>
       </c>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A24" s="8" t="s">
+      <c r="B21" t="s" s="7">
         <v>343</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" ht="22.25" customHeight="1">
+      <c r="A22" t="s" s="9">
         <v>344</v>
       </c>
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B22" t="s" s="10">
+        <v>345</v>
+      </c>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" ht="22.25" customHeight="1">
+      <c r="A23" t="s" s="6">
+        <v>346</v>
+      </c>
+      <c r="B23" t="s" s="7">
+        <v>347</v>
+      </c>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" ht="22.25" customHeight="1">
+      <c r="A24" t="s" s="9">
+        <v>348</v>
+      </c>
+      <c r="B24" t="s" s="10">
+        <v>349</v>
+      </c>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" ht="19.95" customHeight="1">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" ht="20.2" customHeight="1">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3606,102 +3445,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="18" customWidth="1"/>
-    <col min="2" max="4" width="16.28515625" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="16.28515625" style="18"/>
+    <col min="1" max="1" width="25.2734" style="19" customWidth="1"/>
+    <col min="2" max="3" width="16.3516" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="16.3516" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="20.2" customHeight="1">
+      <c r="A2" t="s" s="20">
         <v>12</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" t="s" s="21">
         <v>13</v>
       </c>
-      <c r="C2" s="21"/>
-    </row>
-    <row r="3" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" ht="19.95" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" ht="19.95" customHeight="1">
+      <c r="A4" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" ht="19.95" customHeight="1">
+      <c r="A5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" ht="19.95" customHeight="1">
+      <c r="A6" t="s" s="9">
         <v>20</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" ht="19.95" customHeight="1">
+      <c r="A7" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" ht="19.95" customHeight="1">
+      <c r="A8" t="s" s="9">
         <v>24</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="17"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" ht="20.2" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3709,155 +3545,152 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="16.28515625" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="16.28515625" style="23"/>
+    <col min="1" max="3" width="16.3516" style="24" customWidth="1"/>
+    <col min="4" max="16384" width="16.3516" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="20.2" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" ht="22.25" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>29</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" ht="22.25" customHeight="1">
+      <c r="A4" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" ht="22.25" customHeight="1">
+      <c r="A5" t="s" s="6">
         <v>33</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" ht="22.25" customHeight="1">
+      <c r="A6" t="s" s="9">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s" s="10">
         <v>36</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" ht="22.25" customHeight="1">
+      <c r="A7" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" ht="22.25" customHeight="1">
+      <c r="A8" t="s" s="9">
         <v>39</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s" s="10">
         <v>40</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" ht="22.25" customHeight="1">
+      <c r="A9" t="s" s="6">
         <v>41</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A10" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" ht="22.25" customHeight="1">
+      <c r="A10" t="s" s="9">
         <v>43</v>
       </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A11" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="B10" t="s" s="10">
         <v>44</v>
       </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A12" s="41" t="s">
-        <v>347</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" ht="22.25" customHeight="1">
+      <c r="A11" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="B11" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" ht="22.25" customHeight="1">
+      <c r="A12" t="s" s="9">
         <v>47</v>
       </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="B12" t="s" s="10">
         <v>48</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" ht="22.25" customHeight="1">
+      <c r="A13" t="s" s="6">
         <v>49</v>
       </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="17"/>
+      <c r="B13" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" ht="22.25" customHeight="1">
+      <c r="A14" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" ht="20.2" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3865,97 +3698,94 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="16.28515625" style="24" customWidth="1"/>
-    <col min="5" max="16384" width="16.28515625" style="24"/>
+    <col min="1" max="3" width="16.3516" style="25" customWidth="1"/>
+    <col min="4" max="16384" width="16.3516" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="20.2" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A4" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" ht="22.25" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>54</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B3" t="s" s="7">
         <v>55</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" ht="22.25" customHeight="1">
+      <c r="A4" t="s" s="9">
         <v>56</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B4" t="s" s="10">
         <v>57</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" ht="22.25" customHeight="1">
+      <c r="A5" t="s" s="6">
         <v>58</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B5" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="17"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" ht="22.25" customHeight="1">
+      <c r="A6" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s" s="10">
+        <v>61</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" ht="22.25" customHeight="1">
+      <c r="A7" t="s" s="6">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" ht="19.95" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" ht="20.2" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3963,259 +3793,256 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:C25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="25" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="25" customWidth="1"/>
-    <col min="5" max="16384" width="16.28515625" style="25"/>
+    <col min="1" max="1" width="16.3516" style="26" customWidth="1"/>
+    <col min="2" max="2" width="33.5859" style="26" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="26" customWidth="1"/>
+    <col min="4" max="16384" width="16.3516" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="20.2" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" ht="22.25" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>65</v>
       </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="B3" t="s" s="7">
         <v>66</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C3" t="s" s="27">
         <v>67</v>
       </c>
-      <c r="C5" s="26" t="s">
+    </row>
+    <row r="4" ht="22.25" customHeight="1">
+      <c r="A4" t="s" s="9">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A6" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="B4" t="s" s="10">
         <v>69</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" ht="22.25" customHeight="1">
+      <c r="A5" t="s" s="6">
         <v>70</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B5" t="s" s="7">
         <v>71</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C5" t="s" s="27">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A8" s="8" t="s">
+    <row r="6" ht="22.25" customHeight="1">
+      <c r="A6" t="s" s="9">
         <v>73</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B6" t="s" s="10">
         <v>74</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" ht="22.25" customHeight="1">
+      <c r="A7" t="s" s="6">
         <v>75</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B7" t="s" s="7">
         <v>76</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="C7" t="s" s="27">
         <v>77</v>
       </c>
-      <c r="B10" s="9" t="s">
+    </row>
+    <row r="8" ht="22.25" customHeight="1">
+      <c r="A8" t="s" s="9">
         <v>78</v>
       </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="B8" t="s" s="10">
         <v>79</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" ht="22.25" customHeight="1">
+      <c r="A9" t="s" s="6">
         <v>80</v>
       </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="B9" t="s" s="7">
         <v>81</v>
       </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="C9" t="s" s="27">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" ht="22.25" customHeight="1">
+      <c r="A10" t="s" s="9">
         <v>82</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B10" t="s" s="10">
         <v>83</v>
       </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" ht="22.25" customHeight="1">
+      <c r="A11" t="s" s="6">
         <v>84</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B11" t="s" s="7">
         <v>85</v>
       </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" ht="22.25" customHeight="1">
+      <c r="A12" t="s" s="9">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s" s="10">
         <v>86</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" ht="22.25" customHeight="1">
+      <c r="A13" t="s" s="6">
         <v>87</v>
       </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="B13" t="s" s="7">
         <v>88</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" ht="22.25" customHeight="1">
+      <c r="A14" t="s" s="9">
         <v>89</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="B14" t="s" s="10">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" ht="22.25" customHeight="1">
+      <c r="A15" t="s" s="6">
         <v>91</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B15" t="s" s="7">
         <v>92</v>
       </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A18" s="8" t="s">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" ht="22.25" customHeight="1">
+      <c r="A16" t="s" s="9">
         <v>93</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B16" t="s" s="10">
         <v>94</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="C16" t="s" s="28">
         <v>95</v>
       </c>
-      <c r="B19" s="6" t="s">
+    </row>
+    <row r="17" ht="22.25" customHeight="1">
+      <c r="A17" t="s" s="6">
         <v>96</v>
       </c>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A20" s="8" t="s">
+      <c r="B17" t="s" s="7">
         <v>97</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" ht="22.25" customHeight="1">
+      <c r="A18" t="s" s="9">
         <v>98</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="B18" t="s" s="10">
         <v>99</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C18" t="s" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" ht="22.25" customHeight="1">
+      <c r="A19" t="s" s="6">
         <v>100</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A22" s="8" t="s">
+      <c r="B19" t="s" s="7">
         <v>101</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" ht="22.25" customHeight="1">
+      <c r="A20" t="s" s="9">
         <v>102</v>
       </c>
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A23" s="5" t="s">
+      <c r="B20" t="s" s="10">
         <v>103</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C20" t="s" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" ht="22.25" customHeight="1">
+      <c r="A21" t="s" s="6">
         <v>104</v>
       </c>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="17"/>
+      <c r="B21" t="s" s="7">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s" s="27">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" ht="22.25" customHeight="1">
+      <c r="A22" t="s" s="9">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s" s="10">
+        <v>107</v>
+      </c>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" ht="22.25" customHeight="1">
+      <c r="A23" t="s" s="6">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s" s="7">
+        <v>109</v>
+      </c>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" ht="19.95" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" ht="20.2" customHeight="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4223,179 +4050,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:C18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="28" customWidth="1"/>
-    <col min="2" max="4" width="16.28515625" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="16.28515625" style="28"/>
+    <col min="1" max="1" width="23.8281" style="29" customWidth="1"/>
+    <col min="2" max="3" width="16.3516" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="16.3516" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="20.2" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" ht="22.25" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>111</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="B3" t="s" s="7">
         <v>112</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" ht="22.25" customHeight="1">
+      <c r="A4" t="s" s="9">
         <v>113</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="B4" t="s" s="10">
         <v>114</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" ht="22.25" customHeight="1">
+      <c r="A5" t="s" s="6">
         <v>115</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="B5" t="s" s="7">
         <v>116</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" ht="22.25" customHeight="1">
+      <c r="A6" t="s" s="9">
         <v>117</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="B6" t="s" s="10">
         <v>118</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" ht="22.25" customHeight="1">
+      <c r="A7" t="s" s="6">
         <v>119</v>
       </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="B7" t="s" s="7">
         <v>120</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" ht="22.25" customHeight="1">
+      <c r="A8" t="s" s="9">
         <v>121</v>
       </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="B8" t="s" s="10">
         <v>122</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" ht="22.25" customHeight="1">
+      <c r="A9" t="s" s="6">
         <v>123</v>
       </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="B9" t="s" s="7">
         <v>124</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" ht="22.25" customHeight="1">
+      <c r="A10" t="s" s="9">
         <v>125</v>
       </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="B10" t="s" s="10">
         <v>126</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" ht="22.25" customHeight="1">
+      <c r="A11" t="s" s="6">
         <v>127</v>
       </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="B11" t="s" s="7">
         <v>128</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" ht="22.25" customHeight="1">
+      <c r="A12" t="s" s="9">
         <v>129</v>
       </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="B12" t="s" s="10">
         <v>130</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" ht="22.25" customHeight="1">
+      <c r="A13" t="s" s="6">
         <v>131</v>
       </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="B13" t="s" s="7">
         <v>132</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" ht="22.25" customHeight="1">
+      <c r="A14" t="s" s="9">
         <v>133</v>
       </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
+      <c r="B14" t="s" s="10">
+        <v>134</v>
+      </c>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" ht="22.25" customHeight="1">
+      <c r="A15" t="s" s="6">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s" s="7">
+        <v>136</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" ht="22.25" customHeight="1">
+      <c r="A16" t="s" s="9">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s" s="10">
+        <v>138</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" ht="19.95" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" ht="20.2" customHeight="1">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4403,145 +4227,142 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="16.28515625" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="16.28515625" style="32"/>
+    <col min="1" max="3" width="16.3516" style="33" customWidth="1"/>
+    <col min="4" max="16384" width="16.3516" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="20.2" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" ht="22.25" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>140</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="B3" t="s" s="7">
         <v>141</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" ht="22.25" customHeight="1">
+      <c r="A4" t="s" s="9">
         <v>142</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="B4" t="s" s="10">
         <v>143</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" ht="22.25" customHeight="1">
+      <c r="A5" t="s" s="6">
         <v>144</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="B5" t="s" s="7">
         <v>145</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" ht="22.25" customHeight="1">
+      <c r="A6" t="s" s="9">
         <v>146</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="B6" t="s" s="10">
         <v>147</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" ht="22.25" customHeight="1">
+      <c r="A7" t="s" s="6">
         <v>148</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="B7" t="s" s="7">
         <v>149</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="C7" t="s" s="27">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" ht="22.25" customHeight="1">
+      <c r="A8" t="s" s="9">
         <v>150</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B8" t="s" s="10">
         <v>151</v>
       </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="C8" t="s" s="28">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" ht="22.25" customHeight="1">
+      <c r="A9" t="s" s="6">
         <v>152</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B9" t="s" s="7">
         <v>153</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="C9" t="s" s="27">
         <v>154</v>
       </c>
-      <c r="B12" s="9" t="s">
+    </row>
+    <row r="10" ht="22.25" customHeight="1">
+      <c r="A10" t="s" s="9">
         <v>155</v>
       </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="17"/>
+      <c r="B10" t="s" s="10">
+        <v>156</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" ht="22.25" customHeight="1">
+      <c r="A11" t="s" s="6">
+        <v>157</v>
+      </c>
+      <c r="B11" t="s" s="7">
+        <v>158</v>
+      </c>
+      <c r="C11" t="s" s="27">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" ht="22.25" customHeight="1">
+      <c r="A12" t="s" s="9">
+        <v>159</v>
+      </c>
+      <c r="B12" t="s" s="10">
+        <v>160</v>
+      </c>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" ht="20.2" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4549,133 +4370,130 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="16.28515625" style="33" customWidth="1"/>
-    <col min="5" max="16384" width="16.28515625" style="33"/>
+    <col min="1" max="3" width="16.3516" style="34" customWidth="1"/>
+    <col min="4" max="16384" width="16.3516" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="20.2" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" ht="22.25" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>162</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="B3" t="s" s="7">
         <v>163</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" ht="22.25" customHeight="1">
+      <c r="A4" t="s" s="9">
         <v>164</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="B4" t="s" s="10">
         <v>165</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" ht="22.25" customHeight="1">
+      <c r="A5" t="s" s="6">
         <v>166</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="B5" t="s" s="7">
         <v>167</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" ht="22.25" customHeight="1">
+      <c r="A6" t="s" s="9">
         <v>168</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="B6" t="s" s="10">
         <v>169</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" ht="22.25" customHeight="1">
+      <c r="A7" t="s" s="6">
         <v>170</v>
       </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="B7" t="s" s="7">
         <v>171</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" ht="22.25" customHeight="1">
+      <c r="A8" t="s" s="9">
         <v>172</v>
       </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="B8" t="s" s="10">
         <v>173</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" ht="22.25" customHeight="1">
+      <c r="A9" t="s" s="6">
         <v>174</v>
       </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="17"/>
+      <c r="B9" t="s" s="7">
+        <v>175</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" ht="22.25" customHeight="1">
+      <c r="A10" t="s" s="9">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s" s="10">
+        <v>177</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" ht="22.25" customHeight="1">
+      <c r="A11" t="s" s="6">
+        <v>178</v>
+      </c>
+      <c r="B11" t="s" s="7">
+        <v>179</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" ht="19.95" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" ht="20.2" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4683,207 +4501,204 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="34" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="34" customWidth="1"/>
-    <col min="5" max="16384" width="16.28515625" style="34"/>
+    <col min="1" max="1" width="16.4375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="19.6484" style="35" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="16.3516" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="20.2" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" ht="22.25" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>181</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="B3" t="s" s="7">
         <v>182</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" ht="22.25" customHeight="1">
+      <c r="A4" t="s" s="9">
         <v>183</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="B4" t="s" s="10">
         <v>184</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" ht="22.25" customHeight="1">
+      <c r="A5" t="s" s="6">
         <v>185</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="B5" t="s" s="7">
         <v>186</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" ht="22.25" customHeight="1">
+      <c r="A6" t="s" s="9">
         <v>187</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="B6" t="s" s="10">
         <v>188</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" ht="22.25" customHeight="1">
+      <c r="A7" t="s" s="6">
         <v>189</v>
       </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="B7" t="s" s="7">
         <v>190</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" ht="22.25" customHeight="1">
+      <c r="A8" t="s" s="9">
         <v>191</v>
       </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="B8" t="s" s="10">
         <v>192</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" ht="22.25" customHeight="1">
+      <c r="A9" t="s" s="6">
         <v>193</v>
       </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="B9" t="s" s="7">
         <v>194</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" ht="22.25" customHeight="1">
+      <c r="A10" t="s" s="9">
         <v>195</v>
       </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="B10" t="s" s="10">
         <v>196</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" ht="22.25" customHeight="1">
+      <c r="A11" t="s" s="6">
         <v>197</v>
       </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="B11" t="s" s="7">
         <v>198</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" ht="22.25" customHeight="1">
+      <c r="A12" t="s" s="9">
         <v>199</v>
       </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="B12" t="s" s="10">
         <v>200</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" ht="22.25" customHeight="1">
+      <c r="A13" t="s" s="6">
         <v>201</v>
       </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="B13" t="s" s="7">
         <v>202</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" ht="22.25" customHeight="1">
+      <c r="A14" t="s" s="9">
         <v>203</v>
       </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="B14" t="s" s="10">
         <v>204</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" ht="22.25" customHeight="1">
+      <c r="A15" t="s" s="6">
         <v>205</v>
       </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A18" s="8" t="s">
+      <c r="B15" t="s" s="7">
         <v>206</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" ht="22.25" customHeight="1">
+      <c r="A16" t="s" s="9">
         <v>207</v>
       </c>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3" ht="22.35" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="B16" t="s" s="10">
         <v>208</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" ht="22.25" customHeight="1">
+      <c r="A17" t="s" s="6">
         <v>209</v>
       </c>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="17"/>
+      <c r="B17" t="s" s="7">
+        <v>210</v>
+      </c>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" ht="22.25" customHeight="1">
+      <c r="A18" t="s" s="9">
+        <v>211</v>
+      </c>
+      <c r="B18" t="s" s="10">
+        <v>212</v>
+      </c>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" ht="22.25" customHeight="1">
+      <c r="A19" t="s" s="6">
+        <v>213</v>
+      </c>
+      <c r="B19" t="s" s="7">
+        <v>214</v>
+      </c>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" ht="19.95" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" ht="20.2" customHeight="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
